--- a/predictions/multiple/RandomForestRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Enfermedades cardíacas.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5052488079807931</v>
+        <v>0.5046182092955342</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9899394232759922</v>
+        <v>0.9899519798349685</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2371854565248591</v>
+        <v>0.2389023197657776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9953642042874549</v>
+        <v>0.9953306481522353</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2762728598990484</v>
+        <v>0.2767041672244312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9946851245073394</v>
+        <v>0.9946768271134718</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4123090938255593</v>
+        <v>0.4093595694455268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918698291712401</v>
+        <v>0.9919279897537554</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/predictions/multiple/RandomForestRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Enfermedades cardíacas.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5046182092955342</v>
+        <v>0.5233743619386709</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9899519798349685</v>
+        <v>0.9895785050048791</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2389023197657776</v>
+        <v>0.2471770603920336</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9953306481522353</v>
+        <v>0.995168918138601</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2767041672244312</v>
+        <v>0.2781431800967204</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9946768271134718</v>
+        <v>0.9946491437056578</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4093595694455268</v>
+        <v>0.4132504433447333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9919279897537554</v>
+        <v>0.9918512670475443</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/predictions/multiple/RandomForestRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Enfermedades cardíacas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5233743619386709</v>
+        <v>0.5022389224929714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9895785050048791</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9899993564879116</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5794856473835275</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -480,12 +488,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2471770603920336</v>
+        <v>0.2364677015639231</v>
       </c>
       <c r="C3" t="n">
-        <v>0.995168918138601</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>0.9953782328262166</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3872941361072821</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -498,12 +509,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2781431800967204</v>
+        <v>0.2812201673132656</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9946491437056578</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>0.9945899493137279</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4300862106884557</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -516,12 +530,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4132504433447333</v>
+        <v>0.4130513438249112</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918512670475443</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>0.9918551930174837</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4941922081108229</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/RandomForestRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Enfermedades cardíacas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5022389224929714</v>
+        <v>0.5007975339915302</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9899993564879116</v>
+        <v>0.9900280575939385</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5794856473835275</v>
+        <v>0.577282691421273</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -488,17 +507,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2364677015639231</v>
+        <v>0.2471391001939683</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9953782328262166</v>
+        <v>0.9951696600716268</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3872941361072821</v>
+        <v>0.3900443243076906</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -509,17 +542,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2812201673132656</v>
+        <v>0.2842819667707182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9945899493137279</v>
+        <v>0.9945310471005109</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4300862106884557</v>
+        <v>0.4325455182881846</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -530,17 +577,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4130513438249112</v>
+        <v>0.4115775457434243</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918551930174837</v>
+        <v>0.9918842542978411</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4941922081108229</v>
+        <v>0.4928213322493636</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/RandomForestRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Enfermedades cardíacas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5007975339915302</v>
+        <v>0.5289725419958162</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9900280575939385</v>
+        <v>0.9894670333515272</v>
       </c>
       <c r="D2" t="n">
-        <v>0.577282691421273</v>
+        <v>0.6079239902858726</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,6 +509,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>0.4788041146331428</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2471391001939683</v>
+        <v>0.2417608117777805</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9951696600716268</v>
+        <v>0.995274778853975</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3900443243076906</v>
+        <v>0.3930138500027158</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -534,6 +550,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>0.4788041146331428</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2842819667707182</v>
+        <v>0.2772240630221857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9945310471005109</v>
+        <v>0.994666825474385</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4325455182881846</v>
+        <v>0.4269450761411213</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -569,6 +591,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>0.4788041146331428</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -577,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4115775457434243</v>
+        <v>0.4126945062468326</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918842542978411</v>
+        <v>0.9918622293659692</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4928213322493636</v>
+        <v>0.494246395357917</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -604,6 +632,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>0.4788041146331428</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/RandomForestRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Enfermedades cardíacas.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5289725419958162</v>
+        <v>0.5018713114942519</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9894670333515272</v>
+        <v>0.9900066764035625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6079239902858726</v>
+        <v>0.5790291606489706</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.4788041146331428</v>
+        <v>0.495515052700163</v>
       </c>
       <c r="H2" t="n">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2417608117777805</v>
+        <v>0.2482832492164503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.995274778853975</v>
+        <v>0.9951472976502093</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3930138500027158</v>
+        <v>0.3915547613525792</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.4788041146331428</v>
+        <v>0.495515052700163</v>
       </c>
       <c r="H3" t="n">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2772240630221857</v>
+        <v>0.2807036706256813</v>
       </c>
       <c r="C4" t="n">
-        <v>0.994666825474385</v>
+        <v>0.9945998855614936</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4269450761411213</v>
+        <v>0.4326866218205526</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -588,14 +588,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.4788041146331428</v>
+        <v>0.495515052700163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4126945062468326</v>
+        <v>0.4104579268716326</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918622293659692</v>
+        <v>0.991906331649098</v>
       </c>
       <c r="D5" t="n">
-        <v>0.494246395357917</v>
+        <v>0.492446002047319</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,14 +629,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.4788041146331428</v>
+        <v>0.495515052700163</v>
       </c>
       <c r="H5" t="n">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/RandomForestRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Enfermedades cardíacas.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5018713114942519</v>
+        <v>0.5321473986446712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9900066764035625</v>
+        <v>0.9894038152134554</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5790291606489706</v>
+        <v>0.6104588214332914</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.495515052700163</v>
+        <v>0.4821145882335259</v>
       </c>
       <c r="H2" t="n">
-        <v>0.983</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2482832492164503</v>
+        <v>0.2349473443729408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9951472976502093</v>
+        <v>0.9954079482457484</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3915547613525792</v>
+        <v>0.3884558644305861</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.495515052700163</v>
+        <v>0.4821145882335259</v>
       </c>
       <c r="H3" t="n">
-        <v>0.983</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2807036706256813</v>
+        <v>0.2787905533223916</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9945998855614936</v>
+        <v>0.9946366896843218</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4326866218205526</v>
+        <v>0.4309113523329547</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.495515052700163</v>
+        <v>0.4821145882335259</v>
       </c>
       <c r="H4" t="n">
-        <v>0.983</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4104579268716326</v>
+        <v>0.4158868126993949</v>
       </c>
       <c r="C5" t="n">
-        <v>0.991906331649098</v>
+        <v>0.9917992814533819</v>
       </c>
       <c r="D5" t="n">
-        <v>0.492446002047319</v>
+        <v>0.4965755407813393</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.495515052700163</v>
+        <v>0.4821145882335259</v>
       </c>
       <c r="H5" t="n">
-        <v>0.983</v>
+        <v>0.992</v>
       </c>
     </row>
   </sheetData>
